--- a/biology/Botanique/Liste_des_liqueurs_et_alcools_français_AOC/Liste_des_liqueurs_et_alcools_français_AOC.xlsx
+++ b/biology/Botanique/Liste_des_liqueurs_et_alcools_français_AOC/Liste_des_liqueurs_et_alcools_français_AOC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_liqueurs_et_alcools_fran%C3%A7ais_AOC</t>
+          <t>Liste_des_liqueurs_et_alcools_français_AOC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste recense les liqueurs et eaux-de-vie françaises autorisées à porter la mention Appellation d'origine contrôlée (AOC) sur leur étiquette.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_liqueurs_et_alcools_fran%C3%A7ais_AOC</t>
+          <t>Liste_des_liqueurs_et_alcools_français_AOC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart sont des eaux-de-vie issues des vignobles de Cognac et d'Armagnac ; on trouve également le pommeau, le calvados et le cidre, issus de la pomme, le rhum agricole de Martinique, issu de la canne à sucre, ainsi que le kirsch de Fougerolles, qui est la première eau-de-vie de fruits à noyau à obtenir cette appellation.
  Portail de la vigne et du vin   Portail de la France                    </t>
